--- a/LeaguerManagement.APIs/Contents/Templates/Mau 5B-TC.xlsx
+++ b/LeaguerManagement.APIs/Contents/Templates/Mau 5B-TC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\LeaguerManagement\LeaguerManagement.APIs\Contents\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CD9D96-2292-4327-8A37-C2CCD3B4499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36937ACA-D5F4-4387-83A9-B1473E149C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFC0E566-1AA5-425D-A2BC-61FDD377FE7A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFC0E566-1AA5-425D-A2BC-61FDD377FE7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ĐẢNG BỘ KHỐI CÁC CƠ QUAN TPĐN</t>
   </si>
@@ -41,14 +41,6 @@
   </si>
   <si>
     <t>ĐẢNG ỦY SỞ TÀI NGUYÊN VÀ MÔI TRƯỜNG</t>
-  </si>
-  <si>
-    <t>Đà Nẵng, ngày 30 tháng 12 năm 2020</t>
-  </si>
-  <si>
-    <t>BẢNG TỔNG HỢP
-Kết quả đánh giá phân loại đảng viên
-Năm 2020</t>
   </si>
   <si>
     <t>Mẫu 5B-TC</t>
@@ -116,9 +108,14 @@
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> sinh hoạt đảng tạm thời
+      <t xml:space="preserve"> sinh hoạt Đảng tạm thời
 (X)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">BẢNG TỔNG HỢP
+Kết quả đánh giá phân loại đảng viên
+</t>
   </si>
 </sst>
 </file>
@@ -273,50 +270,50 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,164 +632,162 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9" style="10"/>
-    <col min="5" max="5" width="4.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="10" customWidth="1"/>
-    <col min="7" max="7" width="4.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="10" customWidth="1"/>
-    <col min="10" max="11" width="3.625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="4.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="3.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="A3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="16" t="s">
-        <v>5</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="6" t="s">
-        <v>20</v>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="14" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="J7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="K7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -804,12 +799,12 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
